--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
@@ -537,10 +537,10 @@
         <v>0.044652</v>
       </c>
       <c r="I2">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J2">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N2">
         <v>0.221628</v>
@@ -567,10 +567,10 @@
         <v>0.009896133456</v>
       </c>
       <c r="S2">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="T2">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H3">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I3">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J3">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N3">
         <v>0.221628</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0004197141813333334</v>
+        <v>0.0006524974573333332</v>
       </c>
       <c r="R3">
-        <v>0.003777427632</v>
+        <v>0.005872477116</v>
       </c>
       <c r="S3">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="T3">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
     </row>
   </sheetData>
